--- a/_Drive/Publicacoes/miguel.xlsx
+++ b/_Drive/Publicacoes/miguel.xlsx
@@ -8,169 +8,497 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgHxNylFbKmshBO4IusRjwtPZEU4w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BxALpTW9RQF2Ra5A/hpA3ycK5DBUDTXHrEiSKGgnw9o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1016/j.ijfatigue.2017.12.016</t>
-  </si>
-  <si>
-    <t>10.1016/j.proeng.2010.03.178</t>
-  </si>
-  <si>
-    <t>10.1016/j.engfailanal.2006.11.053</t>
-  </si>
-  <si>
-    <t>10.1007/s40430-019-1821-9</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2015-0737</t>
-  </si>
-  <si>
-    <t>10.1016/j.materresbull.2004.04.006</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmrt.2015.05.006</t>
-  </si>
-  <si>
-    <t>10.1016/j.matdes.2015.08.158</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-011-0834-5</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.498-499.104</t>
-  </si>
-  <si>
-    <t>10.3139/146.111952</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.591-593.667</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2007.06.009</t>
-  </si>
-  <si>
-    <t>10.1590/0370-44672019740154</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2013.04.042</t>
-  </si>
-  <si>
-    <t>10.1016/j.ceramint.2012.08.093</t>
-  </si>
-  <si>
-    <t>10.1590/s1516-14392008000100017</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2016.06.041</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2007.09.024</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-013-0565-4</t>
-  </si>
-  <si>
-    <t>10.1179/mht.2005.053</t>
-  </si>
-  <si>
-    <t>10.1016/j.msec.2009.03.006</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2005.03.073</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.591-593.839</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.591-593.30</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.636-637.657</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.530-531.690</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmrt.2013.10.005</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.660-661.1087</t>
-  </si>
-  <si>
-    <t>10.1590/S0366-69132014000100006</t>
-  </si>
-  <si>
-    <t>10.1016/j.matdes.2008.08.010</t>
-  </si>
-  <si>
-    <t>10.1051/matecconf/202032111095</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.636-637.47</t>
-  </si>
-  <si>
-    <t>10.5772/22334</t>
-  </si>
-  <si>
-    <t>10.1016/j.corsci.2014.07.047</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.498-499.575</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.660-661.221</t>
-  </si>
-  <si>
-    <t>10.1016/j.surfcoat.2019.04.095</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.591-593.628</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2006.05.089</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2005.02.003</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmrt.2013.03.011</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.660-661.235</t>
-  </si>
-  <si>
-    <t>10.1051/matecconf/201816514001</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2003.11.016</t>
-  </si>
-  <si>
-    <t>10.17563/rbav.v35i1.1017</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-MR-2021-0280</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-011-0834-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-013-0565-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-023-08603-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-024-10426-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s40430-019-1821-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ceramint.2012.08.093</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.corsci.2014.07.047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.engfailanal.2006.11.053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijfatigue.2017.12.016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2005.02.003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmrt.2013.03.011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmrt.2013.10.005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmrt.2015.05.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matdes.2008.08.010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matdes.2015.08.158</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.materresbull.2004.04.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2003.11.016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2005.03.073</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2006.05.089</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2007.06.009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2007.09.024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2013.04.042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2016.06.041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msec.2009.03.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.proeng.2010.03.178</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.surfcoat.2019.04.095</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.tafmec.2023.104051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1051/matecconf/201816514001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1051/matecconf/202032111095</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1179/mht.2005.053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/0370-44672019740154</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-MR-2021-0280</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2015-0737</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2022-0555</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0366-69132014000100006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1516-14392008000100017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.17563/rbav.v35i1.1017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3139/146.111952</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.498-499.104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.498-499.575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.530-531.690</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.591-593.30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.591-593.628</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.591-593.667</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.591-593.839</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.636-637.47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.636-637.657</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.660-661.1087</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.660-661.221</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.660-661.235</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4322/2176-1523.20243029</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.5772/22334</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -179,13 +507,8 @@
       <name val="Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,19 +525,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,19 +992,35 @@
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>14</v>
+      <c r="A48" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="54" ht="12.75" customHeight="1"/>
     <row r="55" ht="12.75" customHeight="1"/>
     <row r="56" ht="12.75" customHeight="1"/>
@@ -1634,6 +1969,60 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink r:id="rId29" ref="A30"/>
+    <hyperlink r:id="rId30" ref="A31"/>
+    <hyperlink r:id="rId31" ref="A32"/>
+    <hyperlink r:id="rId32" ref="A33"/>
+    <hyperlink r:id="rId33" ref="A34"/>
+    <hyperlink r:id="rId34" ref="A35"/>
+    <hyperlink r:id="rId35" ref="A36"/>
+    <hyperlink r:id="rId36" ref="A37"/>
+    <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
+    <hyperlink r:id="rId39" ref="A40"/>
+    <hyperlink r:id="rId40" ref="A41"/>
+    <hyperlink r:id="rId41" ref="A42"/>
+    <hyperlink r:id="rId42" ref="A43"/>
+    <hyperlink r:id="rId43" ref="A44"/>
+    <hyperlink r:id="rId44" ref="A45"/>
+    <hyperlink r:id="rId45" ref="A46"/>
+    <hyperlink r:id="rId46" ref="A47"/>
+    <hyperlink r:id="rId47" ref="A48"/>
+    <hyperlink r:id="rId48" ref="A49"/>
+    <hyperlink r:id="rId49" ref="A50"/>
+    <hyperlink r:id="rId50" ref="A51"/>
+    <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait"/>
@@ -1641,6 +2030,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>